--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>545274.49316876</v>
+        <v>412268.6735972812</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131712.973902314</v>
+        <v>1031014.869386101</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23404792.44036959</v>
+        <v>23327009.85576317</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5017389.580053232</v>
+        <v>5047217.891286013</v>
       </c>
     </row>
     <row r="11">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13.18456318129113</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="H11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>13.18456318129113</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="I12" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3.224589128737049</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1624,58 +1624,58 @@
         <v>29.23886660620531</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="I14" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>29.23886660620531</v>
+      </c>
+      <c r="Y14" t="n">
         <v>25.75359370674562</v>
-      </c>
-      <c r="J14" t="n">
-        <v>29.23886660620531</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,61 +1694,61 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>29.23886660620531</v>
+      </c>
+      <c r="V15" t="n">
         <v>25.75359370674563</v>
       </c>
-      <c r="G15" t="n">
+      <c r="W15" t="n">
         <v>29.23886660620531</v>
-      </c>
-      <c r="H15" t="n">
-        <v>29.23886660620531</v>
-      </c>
-      <c r="I15" t="n">
-        <v>29.23886660620531</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>45.35754004913034</v>
+        <v>45.55924250423406</v>
       </c>
       <c r="H17" t="n">
-        <v>39.95092127527399</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>39.95092127527401</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>45.55924250423406</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
     </row>
     <row r="19">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>45.55924250423406</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>23.03023792622547</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2204,25 +2204,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R21" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="V21" t="n">
-        <v>45.35754004913034</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>39.95092127527398</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.68191730512679</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.388207854422895</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>58.29370945070389</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="W24" t="n">
-        <v>75.70608231735557</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2563,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.402889518284637</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684216</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>66.68191730512682</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>75.70608231735559</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="X27" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T29" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>66.68191730512686</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>66.68191730512682</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>66.68191730512682</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>44.15291272711835</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
     </row>
     <row r="31">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.68191730512677</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>8.388207854422923</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>75.70608231735559</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>58.29370945070389</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="U33" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V33" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>53.49735412383565</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>60.73723220235658</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>60.73723220235658</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="F35" t="n">
-        <v>60.73723220235658</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60.73723220235658</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="C36" t="n">
-        <v>60.73723220235658</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>30.96834954582708</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>60.73723220235658</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="R38" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="S38" t="n">
-        <v>46.46721571115029</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>59.75657007276242</v>
       </c>
       <c r="W38" t="n">
-        <v>40.92832359838115</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.39931902037257</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="C39" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E39" t="n">
-        <v>46.46721571115029</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="W41" t="n">
-        <v>26.73099602985279</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>26.73099602985279</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26.73099602985279</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="C44" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="D44" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E44" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17.42191669726542</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V45" t="n">
-        <v>4.201991451844202</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
     </row>
     <row r="46">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.87540045999605</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="C11" t="n">
-        <v>59.87540045999605</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="D11" t="n">
-        <v>59.87540045999605</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="E11" t="n">
-        <v>59.87540045999605</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="F11" t="n">
-        <v>59.87540045999605</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G11" t="n">
-        <v>46.5576598728333</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H11" t="n">
-        <v>31.43760925162217</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I11" t="n">
-        <v>16.31755863041105</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J11" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K11" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L11" t="n">
-        <v>16.01666962304894</v>
+        <v>31.28558726863968</v>
       </c>
       <c r="M11" t="n">
-        <v>30.83583123689797</v>
+        <v>60.23206520878293</v>
       </c>
       <c r="N11" t="n">
-        <v>45.65499285074699</v>
+        <v>89.17854314892618</v>
       </c>
       <c r="O11" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P11" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R11" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S11" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T11" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="W11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="X11" t="n">
-        <v>59.87540045999605</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.87540045999605</v>
+        <v>57.88704903854787</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="C12" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="D12" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="E12" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="F12" t="n">
-        <v>44.75534983878492</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G12" t="n">
-        <v>44.75534983878492</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="H12" t="n">
-        <v>31.43760925162217</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I12" t="n">
-        <v>16.31755863041105</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J12" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K12" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L12" t="n">
-        <v>15.41791561844898</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M12" t="n">
-        <v>30.237077232298</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N12" t="n">
-        <v>45.05623884614702</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O12" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P12" t="n">
-        <v>59.87540045999605</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.87540045999605</v>
+        <v>94.19889614400448</v>
       </c>
       <c r="R12" t="n">
-        <v>59.87540045999605</v>
+        <v>64.6646874508678</v>
       </c>
       <c r="S12" t="n">
-        <v>59.87540045999605</v>
+        <v>64.6646874508678</v>
       </c>
       <c r="T12" t="n">
-        <v>59.87540045999605</v>
+        <v>64.6646874508678</v>
       </c>
       <c r="U12" t="n">
-        <v>59.87540045999605</v>
+        <v>64.6646874508678</v>
       </c>
       <c r="V12" t="n">
-        <v>59.87540045999605</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="W12" t="n">
-        <v>59.87540045999605</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="X12" t="n">
-        <v>59.87540045999605</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.87540045999605</v>
+        <v>61.40752671476977</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="C14" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="D14" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="E14" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="F14" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G14" t="n">
-        <v>87.42125773168455</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H14" t="n">
-        <v>57.88704903854787</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I14" t="n">
-        <v>31.8733180216331</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J14" t="n">
         <v>2.339109328496424</v>
@@ -5290,7 +5290,7 @@
         <v>60.23206520878293</v>
       </c>
       <c r="N14" t="n">
-        <v>88.00898848467797</v>
+        <v>89.17854314892618</v>
       </c>
       <c r="O14" t="n">
         <v>116.9554664248212</v>
@@ -5311,19 +5311,19 @@
         <v>116.9554664248212</v>
       </c>
       <c r="U14" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V14" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="W14" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="X14" t="n">
-        <v>116.9554664248212</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="Y14" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="C15" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="D15" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="E15" t="n">
-        <v>116.9554664248212</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F15" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G15" t="n">
-        <v>61.40752671476977</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H15" t="n">
-        <v>31.8733180216331</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I15" t="n">
         <v>2.339109328496424</v>
@@ -5390,19 +5390,19 @@
         <v>116.9554664248212</v>
       </c>
       <c r="U15" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V15" t="n">
-        <v>116.9554664248212</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="W15" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="X15" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.9554664248212</v>
+        <v>31.8733180216331</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="C17" t="n">
-        <v>181.4301601965213</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="D17" t="n">
-        <v>181.4301601965213</v>
+        <v>50.15742438470159</v>
       </c>
       <c r="E17" t="n">
-        <v>181.4301601965213</v>
+        <v>50.15742438470159</v>
       </c>
       <c r="F17" t="n">
-        <v>181.4301601965213</v>
+        <v>50.15742438470159</v>
       </c>
       <c r="G17" t="n">
-        <v>135.6144631771978</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="H17" t="n">
-        <v>95.25999724257757</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="I17" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J17" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K17" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="L17" t="n">
-        <v>48.53256785256946</v>
+        <v>39.32210280728739</v>
       </c>
       <c r="M17" t="n">
-        <v>93.43653250120849</v>
+        <v>90.52969826504366</v>
       </c>
       <c r="N17" t="n">
-        <v>122.5717091415445</v>
+        <v>141.7372937227999</v>
       </c>
       <c r="O17" t="n">
-        <v>167.4756737901835</v>
+        <v>192.9448891805562</v>
       </c>
       <c r="P17" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="R17" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="S17" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="T17" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="U17" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="V17" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="W17" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="X17" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="Y17" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>181.4301601965213</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="C18" t="n">
-        <v>141.0756942619011</v>
+        <v>50.15742438470159</v>
       </c>
       <c r="D18" t="n">
-        <v>141.0756942619011</v>
+        <v>50.15742438470159</v>
       </c>
       <c r="E18" t="n">
-        <v>141.0756942619011</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="F18" t="n">
-        <v>141.0756942619011</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="G18" t="n">
-        <v>95.25999724257757</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="H18" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="I18" t="n">
-        <v>49.444300223254</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J18" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K18" t="n">
-        <v>3.628603203930427</v>
+        <v>32.4036814599907</v>
       </c>
       <c r="L18" t="n">
-        <v>46.71826625060424</v>
+        <v>59.58022002274245</v>
       </c>
       <c r="M18" t="n">
-        <v>91.62223089924328</v>
+        <v>104.4841846713815</v>
       </c>
       <c r="N18" t="n">
-        <v>136.5261955478823</v>
+        <v>155.6917801291378</v>
       </c>
       <c r="O18" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="P18" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="Q18" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="R18" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="S18" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="T18" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="U18" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="V18" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="W18" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="X18" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="Y18" t="n">
-        <v>181.4301601965213</v>
+        <v>102.4047414520991</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="C19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="D19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="E19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="F19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="G19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="H19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="I19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="L19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="M19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="N19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="O19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="P19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="R19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="S19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="T19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="U19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="V19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="W19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="X19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="C20" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="D20" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="E20" t="n">
-        <v>3.628603203930427</v>
+        <v>102.4047414520991</v>
       </c>
       <c r="F20" t="n">
-        <v>3.628603203930427</v>
+        <v>50.15742438470159</v>
       </c>
       <c r="G20" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="H20" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="I20" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J20" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K20" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="L20" t="n">
-        <v>46.71826625060424</v>
+        <v>55.34558296949416</v>
       </c>
       <c r="M20" t="n">
-        <v>91.62223089924328</v>
+        <v>106.5531784272504</v>
       </c>
       <c r="N20" t="n">
-        <v>136.5261955478823</v>
+        <v>157.7607738850067</v>
       </c>
       <c r="O20" t="n">
-        <v>181.4301601965213</v>
+        <v>192.9448891805563</v>
       </c>
       <c r="P20" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="R20" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="S20" t="n">
-        <v>181.4301601965213</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="T20" t="n">
-        <v>141.0756942619011</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="U20" t="n">
-        <v>95.25999724257757</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="V20" t="n">
-        <v>49.444300223254</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="W20" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="X20" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.628603203930427</v>
+        <v>154.6520585194966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.628603203930427</v>
+        <v>27.40085410388483</v>
       </c>
       <c r="C21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="D21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="E21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="F21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="G21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="H21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="I21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J21" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K21" t="n">
-        <v>31.89429715218322</v>
+        <v>32.40368145999067</v>
       </c>
       <c r="L21" t="n">
-        <v>46.71826625060424</v>
+        <v>59.58022002274248</v>
       </c>
       <c r="M21" t="n">
-        <v>91.62223089924328</v>
+        <v>104.4841846713815</v>
       </c>
       <c r="N21" t="n">
-        <v>136.5261955478823</v>
+        <v>155.6917801291378</v>
       </c>
       <c r="O21" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="P21" t="n">
-        <v>181.4301601965213</v>
+        <v>206.8993755868941</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.4301601965213</v>
+        <v>184.1428053060773</v>
       </c>
       <c r="R21" t="n">
-        <v>135.6144631771978</v>
+        <v>131.8954882386798</v>
       </c>
       <c r="S21" t="n">
-        <v>135.6144631771978</v>
+        <v>79.64817117128231</v>
       </c>
       <c r="T21" t="n">
-        <v>135.6144631771978</v>
+        <v>79.64817117128231</v>
       </c>
       <c r="U21" t="n">
-        <v>89.79876615787418</v>
+        <v>27.40085410388483</v>
       </c>
       <c r="V21" t="n">
-        <v>43.98306913855061</v>
+        <v>27.40085410388483</v>
       </c>
       <c r="W21" t="n">
-        <v>3.628603203930427</v>
+        <v>27.40085410388483</v>
       </c>
       <c r="X21" t="n">
-        <v>3.628603203930427</v>
+        <v>27.40085410388483</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.628603203930427</v>
+        <v>27.40085410388483</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="C22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="D22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="E22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="F22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="G22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="H22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="I22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="J22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="K22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="L22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="M22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="N22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="O22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="P22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="R22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="S22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="T22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="U22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="V22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="W22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="X22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.628603203930427</v>
+        <v>4.137987511737881</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52727680493952</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="C23" t="n">
-        <v>82.52727680493952</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="D23" t="n">
-        <v>82.52727680493952</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="E23" t="n">
-        <v>82.52727680493952</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="F23" t="n">
-        <v>82.52727680493952</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G23" t="n">
-        <v>82.52727680493952</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H23" t="n">
-        <v>82.52727680493952</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I23" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J23" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K23" t="n">
-        <v>6.056486585388444</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L23" t="n">
-        <v>64.0227783805384</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M23" t="n">
-        <v>138.9717998747204</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N23" t="n">
-        <v>213.9208213689024</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O23" t="n">
-        <v>288.8698428630844</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P23" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q23" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R23" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S23" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T23" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U23" t="n">
-        <v>302.8243292694223</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V23" t="n">
-        <v>302.8243292694223</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="W23" t="n">
-        <v>302.8243292694223</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="X23" t="n">
-        <v>226.3535390498712</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y23" t="n">
-        <v>149.8827488303201</v>
+        <v>235.4688572440421</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>226.3535390498712</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C24" t="n">
-        <v>226.3535390498712</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D24" t="n">
-        <v>149.8827488303201</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E24" t="n">
-        <v>149.8827488303201</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F24" t="n">
-        <v>149.8827488303201</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G24" t="n">
-        <v>149.8827488303201</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H24" t="n">
-        <v>141.4098116036303</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I24" t="n">
-        <v>64.93902138407924</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J24" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K24" t="n">
-        <v>6.056486585388446</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L24" t="n">
-        <v>81.00550807957045</v>
+        <v>48.54258814289035</v>
       </c>
       <c r="M24" t="n">
-        <v>155.9545295737524</v>
+        <v>93.44655279152941</v>
       </c>
       <c r="N24" t="n">
-        <v>227.8753077752403</v>
+        <v>160.6116349577815</v>
       </c>
       <c r="O24" t="n">
-        <v>302.8243292694223</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="P24" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q24" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R24" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S24" t="n">
-        <v>302.8243292694223</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="T24" t="n">
-        <v>302.8243292694223</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="U24" t="n">
-        <v>302.8243292694223</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="V24" t="n">
-        <v>302.8243292694223</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W24" t="n">
-        <v>226.3535390498712</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X24" t="n">
-        <v>226.3535390498712</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y24" t="n">
-        <v>226.3535390498712</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.056486585388446</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>149.8827488303202</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="C26" t="n">
-        <v>149.8827488303202</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="D26" t="n">
-        <v>149.8827488303202</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="E26" t="n">
-        <v>149.8827488303202</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="F26" t="n">
-        <v>149.8827488303202</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="G26" t="n">
-        <v>149.8827488303202</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="H26" t="n">
-        <v>73.41195861076906</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="I26" t="n">
-        <v>68.9645954609866</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J26" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K26" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L26" t="n">
-        <v>64.0227783805384</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M26" t="n">
-        <v>138.9717998747205</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N26" t="n">
-        <v>213.9208213689025</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O26" t="n">
-        <v>288.8698428630846</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P26" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q26" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R26" t="n">
-        <v>226.3535390498713</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S26" t="n">
-        <v>226.3535390498713</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T26" t="n">
-        <v>226.3535390498713</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U26" t="n">
-        <v>226.3535390498713</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V26" t="n">
-        <v>226.3535390498713</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="W26" t="n">
-        <v>226.3535390498713</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="X26" t="n">
-        <v>226.3535390498713</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y26" t="n">
-        <v>149.8827488303202</v>
+        <v>235.4688572440421</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.41195861076906</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C27" t="n">
-        <v>73.41195861076906</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J27" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K27" t="n">
-        <v>34.32218053364124</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L27" t="n">
-        <v>109.2712020278233</v>
+        <v>20.27689419463754</v>
       </c>
       <c r="M27" t="n">
-        <v>184.2202235220053</v>
+        <v>77.97726478687639</v>
       </c>
       <c r="N27" t="n">
-        <v>251.3853056882574</v>
+        <v>152.9262862810585</v>
       </c>
       <c r="O27" t="n">
-        <v>302.8243292694224</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="P27" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q27" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R27" t="n">
-        <v>302.8243292694224</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="S27" t="n">
-        <v>302.8243292694224</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="T27" t="n">
-        <v>302.8243292694224</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="U27" t="n">
-        <v>302.8243292694224</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="V27" t="n">
-        <v>302.8243292694224</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="W27" t="n">
-        <v>226.3535390498713</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X27" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.41195861076906</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y28" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K29" t="n">
-        <v>6.056486585388438</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L29" t="n">
-        <v>64.02277838053841</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M29" t="n">
-        <v>138.9717998747205</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N29" t="n">
-        <v>213.9208213689025</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O29" t="n">
-        <v>288.8698428630846</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P29" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R29" t="n">
-        <v>302.8243292694224</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="S29" t="n">
-        <v>302.8243292694224</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="T29" t="n">
-        <v>226.3535390498713</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="U29" t="n">
-        <v>149.8827488303202</v>
+        <v>73.41195861076912</v>
       </c>
       <c r="V29" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W29" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X29" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.8827488303202</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="C30" t="n">
-        <v>82.52727680493955</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="D30" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E30" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F30" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G30" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H30" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I30" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J30" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K30" t="n">
-        <v>6.056486585388448</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L30" t="n">
-        <v>20.2768941946375</v>
+        <v>109.2712020278234</v>
       </c>
       <c r="M30" t="n">
-        <v>95.22591568881954</v>
+        <v>154.1751666764625</v>
       </c>
       <c r="N30" t="n">
-        <v>162.3909978550716</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="O30" t="n">
-        <v>237.3400193492537</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P30" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q30" t="n">
-        <v>302.8243292694224</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="R30" t="n">
-        <v>226.3535390498713</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="S30" t="n">
-        <v>226.3535390498713</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="T30" t="n">
-        <v>226.3535390498713</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="U30" t="n">
-        <v>226.3535390498713</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="V30" t="n">
-        <v>226.3535390498713</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="W30" t="n">
-        <v>226.3535390498713</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="X30" t="n">
-        <v>226.3535390498713</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="Y30" t="n">
-        <v>149.8827488303202</v>
+        <v>50.65538832995244</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C32" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D32" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E32" t="n">
-        <v>82.52727680493955</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F32" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G32" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H32" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I32" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J32" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K32" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L32" t="n">
-        <v>64.0227783805384</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M32" t="n">
-        <v>138.9717998747204</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N32" t="n">
-        <v>213.9208213689025</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O32" t="n">
-        <v>288.8698428630845</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P32" t="n">
-        <v>302.8243292694223</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R32" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S32" t="n">
-        <v>235.4688572440417</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T32" t="n">
-        <v>158.9980670244906</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="U32" t="n">
-        <v>158.9980670244906</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="V32" t="n">
-        <v>158.9980670244906</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="W32" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X32" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y32" t="n">
-        <v>158.9980670244906</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C33" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D33" t="n">
-        <v>141.4098116036303</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E33" t="n">
-        <v>141.4098116036303</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F33" t="n">
-        <v>64.93902138407924</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G33" t="n">
-        <v>64.93902138407924</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H33" t="n">
-        <v>64.93902138407924</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I33" t="n">
-        <v>64.93902138407924</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J33" t="n">
-        <v>6.056486585388448</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K33" t="n">
-        <v>6.056486585388448</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L33" t="n">
-        <v>81.00550807957048</v>
+        <v>48.54258814289035</v>
       </c>
       <c r="M33" t="n">
-        <v>125.9094727282095</v>
+        <v>123.4916096370725</v>
       </c>
       <c r="N33" t="n">
-        <v>193.0745548944616</v>
+        <v>190.6566918033246</v>
       </c>
       <c r="O33" t="n">
-        <v>268.0235763886436</v>
+        <v>265.6057132975067</v>
       </c>
       <c r="P33" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q33" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R33" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S33" t="n">
-        <v>302.8243292694224</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T33" t="n">
-        <v>302.8243292694224</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="U33" t="n">
-        <v>226.3535390498713</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="V33" t="n">
-        <v>149.8827488303202</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="W33" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X33" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y33" t="n">
-        <v>149.8827488303202</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y34" t="n">
-        <v>302.8243292694224</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>242.9489288094263</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="C35" t="n">
-        <v>188.9111973712085</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="D35" t="n">
-        <v>127.5604577728685</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="E35" t="n">
-        <v>66.20971817452852</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="F35" t="n">
-        <v>4.858978576188527</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G35" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H35" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I35" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J35" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K35" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L35" t="n">
-        <v>62.82527037133848</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M35" t="n">
-        <v>122.9551302516715</v>
+        <v>123.0894186197522</v>
       </c>
       <c r="N35" t="n">
-        <v>182.8190689290933</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O35" t="n">
-        <v>242.9489288094263</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P35" t="n">
-        <v>242.9489288094263</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q35" t="n">
-        <v>242.9489288094263</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R35" t="n">
-        <v>242.9489288094263</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S35" t="n">
-        <v>242.9489288094263</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T35" t="n">
-        <v>242.9489288094263</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U35" t="n">
-        <v>242.9489288094263</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V35" t="n">
-        <v>242.9489288094263</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="W35" t="n">
-        <v>242.9489288094263</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="X35" t="n">
-        <v>242.9489288094263</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="Y35" t="n">
-        <v>242.9489288094263</v>
+        <v>211.0138975679251</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.49087933192961</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="C36" t="n">
-        <v>36.14013973358962</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="D36" t="n">
-        <v>36.14013973358962</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="E36" t="n">
-        <v>36.14013973358962</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F36" t="n">
-        <v>36.14013973358962</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G36" t="n">
-        <v>36.14013973358962</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H36" t="n">
-        <v>36.14013973358962</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I36" t="n">
-        <v>36.14013973358962</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J36" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K36" t="n">
-        <v>4.858978576188527</v>
+        <v>33.6931753354247</v>
       </c>
       <c r="L36" t="n">
-        <v>62.55934916842727</v>
+        <v>100.8582575016768</v>
       </c>
       <c r="M36" t="n">
-        <v>122.6892090487603</v>
+        <v>168.0233396679289</v>
       </c>
       <c r="N36" t="n">
-        <v>182.8190689290933</v>
+        <v>235.188421834181</v>
       </c>
       <c r="O36" t="n">
-        <v>242.9489288094263</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P36" t="n">
-        <v>242.9489288094263</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.1923585286096</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R36" t="n">
-        <v>158.8416189302696</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S36" t="n">
-        <v>158.8416189302696</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T36" t="n">
-        <v>158.8416189302696</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U36" t="n">
-        <v>158.8416189302696</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V36" t="n">
-        <v>158.8416189302696</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="W36" t="n">
-        <v>158.8416189302696</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="X36" t="n">
-        <v>158.8416189302696</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="Y36" t="n">
-        <v>158.8416189302696</v>
+        <v>202.8452639650098</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.858978576188527</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G38" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H38" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I38" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J38" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K38" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L38" t="n">
-        <v>33.90674577614698</v>
+        <v>55.92433645350013</v>
       </c>
       <c r="M38" t="n">
-        <v>79.90928933018577</v>
+        <v>123.0894186197522</v>
       </c>
       <c r="N38" t="n">
-        <v>125.9118328842246</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O38" t="n">
-        <v>171.9143764382634</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P38" t="n">
-        <v>185.8688628446012</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.9322813181867</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="R38" t="n">
-        <v>91.99569979177227</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="S38" t="n">
-        <v>45.05911826535783</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="T38" t="n">
-        <v>45.05911826535783</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="U38" t="n">
-        <v>45.05911826535783</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V38" t="n">
-        <v>45.05911826535783</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="W38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="X38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.717377256892023</v>
+        <v>73.9562867807563</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>144.5271218361353</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="C39" t="n">
-        <v>97.59054030972089</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="D39" t="n">
-        <v>97.59054030972089</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E39" t="n">
-        <v>50.65395878330646</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F39" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G39" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H39" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I39" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J39" t="n">
-        <v>3.717377256892023</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K39" t="n">
-        <v>3.717377256892023</v>
+        <v>33.6931753354247</v>
       </c>
       <c r="L39" t="n">
-        <v>20.01333314774132</v>
+        <v>92.13994037745104</v>
       </c>
       <c r="M39" t="n">
-        <v>64.91729779638035</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="N39" t="n">
-        <v>110.9198413504191</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="O39" t="n">
-        <v>139.8663192905624</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P39" t="n">
-        <v>185.8688628446012</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="X39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Y39" t="n">
-        <v>163.1122925637844</v>
+        <v>271.3740693585943</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.8688628446012</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.08297658168556</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="C41" t="n">
-        <v>2.427883381458021</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="D41" t="n">
-        <v>2.427883381458021</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="E41" t="n">
-        <v>2.427883381458021</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="F41" t="n">
-        <v>2.427883381458021</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="G41" t="n">
-        <v>2.427883381458021</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="H41" t="n">
-        <v>2.427883381458021</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="I41" t="n">
-        <v>2.427883381458021</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="J41" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K41" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L41" t="n">
-        <v>17.30451212993422</v>
+        <v>32.76377984426642</v>
       </c>
       <c r="M41" t="n">
-        <v>47.34956897547723</v>
+        <v>77.66774449290548</v>
       </c>
       <c r="N41" t="n">
-        <v>77.39462582102023</v>
+        <v>122.5717091415445</v>
       </c>
       <c r="O41" t="n">
-        <v>107.4396826665632</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P41" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R41" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S41" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T41" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U41" t="n">
-        <v>121.394169072901</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="V41" t="n">
-        <v>121.394169072901</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="W41" t="n">
-        <v>94.39316298214064</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="X41" t="n">
-        <v>94.39316298214064</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="Y41" t="n">
-        <v>63.7380697819131</v>
+        <v>89.79876615787424</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.42888947221842</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="C42" t="n">
-        <v>2.427883381458021</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="D42" t="n">
-        <v>2.427883381458021</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="E42" t="n">
-        <v>2.427883381458021</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="F42" t="n">
-        <v>2.427883381458021</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="G42" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H42" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I42" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J42" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K42" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L42" t="n">
-        <v>32.35757744167181</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M42" t="n">
-        <v>62.40263428721481</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N42" t="n">
-        <v>92.44769113275781</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V42" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="W42" t="n">
-        <v>90.7390758726735</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="X42" t="n">
-        <v>90.7390758726735</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Y42" t="n">
-        <v>60.08398267244596</v>
+        <v>181.4301601965215</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>94.39316298214064</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="C44" t="n">
-        <v>63.7380697819131</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="D44" t="n">
-        <v>33.08297658168556</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="E44" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F44" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G44" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H44" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I44" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J44" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K44" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L44" t="n">
-        <v>17.30451212993422</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M44" t="n">
-        <v>47.34956897547723</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N44" t="n">
-        <v>77.39462582102023</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O44" t="n">
-        <v>107.4396826665632</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="W44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="X44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Y44" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33.08297658168556</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="C45" t="n">
-        <v>33.08297658168556</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="D45" t="n">
-        <v>33.08297658168556</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="E45" t="n">
-        <v>33.08297658168556</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="F45" t="n">
-        <v>33.08297658168556</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="G45" t="n">
-        <v>33.08297658168556</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="H45" t="n">
-        <v>2.427883381458021</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="I45" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J45" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K45" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L45" t="n">
-        <v>32.35757744167181</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M45" t="n">
-        <v>62.40263428721481</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N45" t="n">
-        <v>92.44769113275781</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O45" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P45" t="n">
-        <v>121.394169072901</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q45" t="n">
-        <v>98.63759879208428</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R45" t="n">
-        <v>98.63759879208428</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="S45" t="n">
-        <v>98.63759879208428</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="T45" t="n">
-        <v>98.63759879208428</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="U45" t="n">
-        <v>98.63759879208428</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="V45" t="n">
-        <v>94.39316298214064</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="W45" t="n">
-        <v>63.7380697819131</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="X45" t="n">
-        <v>63.7380697819131</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="Y45" t="n">
-        <v>63.7380697819131</v>
+        <v>67.04219587705748</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.427883381458021</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
   </sheetData>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.92755417855423</v>
+        <v>106.8026410616747</v>
       </c>
       <c r="N8" t="n">
-        <v>84.56682273461436</v>
+        <v>101.7149661658639</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>39.24815814245073</v>
+        <v>50.41291927855482</v>
       </c>
       <c r="M9" t="n">
-        <v>17.2053758999127</v>
+        <v>30.23412553798428</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>9.748834705535955</v>
       </c>
       <c r="O9" t="n">
-        <v>29.50876194646457</v>
+        <v>41.74297661872473</v>
       </c>
       <c r="P9" t="n">
-        <v>52.24359449619777</v>
+        <v>62.06263035810463</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>65.00895600402524</v>
+        <v>79.27897249523147</v>
       </c>
       <c r="M11" t="n">
-        <v>23.86371338847809</v>
+        <v>38.13372987968438</v>
       </c>
       <c r="N11" t="n">
-        <v>17.19178828862405</v>
+        <v>31.46180477983029</v>
       </c>
       <c r="O11" t="n">
-        <v>36.16292332431408</v>
+        <v>49.8563734926433</v>
       </c>
       <c r="P11" t="n">
-        <v>69.57222331010286</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,10 +8771,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>13.69345016832925</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>38.13372987968438</v>
       </c>
       <c r="N14" t="n">
-        <v>30.28043643210488</v>
+        <v>31.46180477983035</v>
       </c>
       <c r="O14" t="n">
-        <v>51.03774184036882</v>
+        <v>49.85637349264336</v>
       </c>
       <c r="P14" t="n">
         <v>69.57222331010286</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>95.39764593815656</v>
+        <v>85.57961628857112</v>
       </c>
       <c r="M17" t="n">
-        <v>54.25240332260941</v>
+        <v>60.61970717020256</v>
       </c>
       <c r="N17" t="n">
-        <v>31.65240952749981</v>
+        <v>53.94778207034847</v>
       </c>
       <c r="O17" t="n">
-        <v>67.15641528329388</v>
+        <v>73.52371913088695</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,10 +9245,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>29.16086407820683</v>
+        <v>13.08700096313401</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>16.11867344292506</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9406,19 +9406,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>93.56501805738361</v>
+        <v>101.7649497857497</v>
       </c>
       <c r="M20" t="n">
-        <v>54.25240332260944</v>
+        <v>60.61970717020259</v>
       </c>
       <c r="N20" t="n">
-        <v>47.5804782227554</v>
+        <v>53.94778207034855</v>
       </c>
       <c r="O20" t="n">
-        <v>67.15641528329388</v>
+        <v>57.33838563370853</v>
       </c>
       <c r="P20" t="n">
-        <v>69.57222331010286</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9485,7 +9485,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6096580698706795</v>
+        <v>13.08700096313409</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.11867344292506</v>
+        <v>22.48597729051824</v>
       </c>
       <c r="P21" t="n">
         <v>5.093443300258059</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>84.60094559083461</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N23" t="n">
-        <v>77.92902049098058</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O23" t="n">
-        <v>97.50495755151906</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>61.342034227205</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>30.34854226822523</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4.803733368924981</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>46.46721571115029</v>
+        <v>38.70423724981406</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>84.60094559083473</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N26" t="n">
-        <v>77.92902049098063</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O26" t="n">
-        <v>97.50495755151911</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
-        <v>61.34203422720503</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>30.34854226822526</v>
+        <v>12.92566256929272</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>7.862564977707166</v>
       </c>
       <c r="O27" t="n">
-        <v>22.71974307173914</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,13 +10120,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>84.60094559083467</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N29" t="n">
-        <v>77.92902049098063</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O29" t="n">
-        <v>97.50495755151911</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M30" t="n">
-        <v>30.34854226822526</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.601069628814258</v>
       </c>
       <c r="O30" t="n">
-        <v>46.46721571115032</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P30" t="n">
-        <v>71.23921089638806</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,13 +10357,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>84.60094559083467</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N32" t="n">
-        <v>77.92902049098063</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O32" t="n">
-        <v>97.50495755151911</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>61.34203422720503</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>46.46721571115032</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="P33" t="n">
-        <v>40.24571893740832</v>
+        <v>42.68800488805211</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L35" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>69.63209547583565</v>
+        <v>69.1934950284592</v>
       </c>
       <c r="N35" t="n">
-        <v>62.69156310031373</v>
+        <v>70.06645551327358</v>
       </c>
       <c r="O35" t="n">
-        <v>82.53610743652007</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P35" t="n">
-        <v>69.57222331010286</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,19 +10667,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>43.91915452827241</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M36" t="n">
-        <v>15.37969215322624</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>31.4983655961513</v>
+        <v>7.312292509363679</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10825,19 +10825,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L38" t="n">
-        <v>80.53441752463729</v>
+        <v>101.0470301984486</v>
       </c>
       <c r="M38" t="n">
-        <v>55.36207898462936</v>
+        <v>76.73838061312767</v>
       </c>
       <c r="N38" t="n">
-        <v>48.69015388477533</v>
+        <v>70.06645551327358</v>
       </c>
       <c r="O38" t="n">
-        <v>68.26609094531381</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,10 +10904,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>2.096513415757823</v>
+        <v>44.67308831593662</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P39" t="n">
-        <v>51.56065901140835</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>65.06700361475976</v>
+        <v>79.46957724290091</v>
       </c>
       <c r="M41" t="n">
-        <v>39.24340554170431</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N41" t="n">
-        <v>32.57148044185027</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O41" t="n">
-        <v>52.14741750238875</v>
+        <v>67.15641528329382</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L42" t="n">
-        <v>15.86796611208559</v>
+        <v>30.99349195897977</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>14.28604556215212</v>
       </c>
       <c r="P42" t="n">
         <v>5.093443300258059</v>
@@ -11302,16 +11302,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>65.06700361475976</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M44" t="n">
-        <v>39.24340554170431</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N44" t="n">
-        <v>32.57148044185027</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O44" t="n">
-        <v>52.14741750238875</v>
+        <v>51.22834658803821</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L45" t="n">
-        <v>15.86796611208559</v>
+        <v>30.99349195897977</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>14.28604556215212</v>
       </c>
       <c r="P45" t="n">
         <v>5.093443300258059</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.183808601427</v>
+        <v>422.2799129738437</v>
       </c>
       <c r="H8" t="n">
-        <v>349.6930017185746</v>
+        <v>350.6772306225875</v>
       </c>
       <c r="I8" t="n">
-        <v>253.4094149273949</v>
+        <v>257.1144787449912</v>
       </c>
       <c r="J8" t="n">
-        <v>101.446972372376</v>
+        <v>109.6037108507811</v>
       </c>
       <c r="K8" t="n">
-        <v>58.70259569150772</v>
+        <v>70.92743225431326</v>
       </c>
       <c r="L8" t="n">
-        <v>14.2739508998134</v>
+        <v>29.43994164996769</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5458232991322802</v>
+        <v>16.73832887716284</v>
       </c>
       <c r="P8" t="n">
-        <v>52.26664865759207</v>
+        <v>66.08657754158443</v>
       </c>
       <c r="Q8" t="n">
-        <v>118.0433949495603</v>
+        <v>128.4215859963782</v>
       </c>
       <c r="R8" t="n">
-        <v>209.8619909813396</v>
+        <v>215.8989072651625</v>
       </c>
       <c r="S8" t="n">
-        <v>235.3411144278282</v>
+        <v>237.5310928142746</v>
       </c>
       <c r="T8" t="n">
-        <v>219.357825578199</v>
+        <v>219.7785224684532</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7890924989132</v>
+        <v>248.7967808487065</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0166986086232</v>
+        <v>161.0681189810912</v>
       </c>
       <c r="H9" t="n">
-        <v>137.7670859254508</v>
+        <v>138.2636984700766</v>
       </c>
       <c r="I9" t="n">
-        <v>117.0104371338873</v>
+        <v>118.7808315368449</v>
       </c>
       <c r="J9" t="n">
-        <v>81.621868918565</v>
+        <v>86.47996647705035</v>
       </c>
       <c r="K9" t="n">
-        <v>11.32033417681042</v>
+        <v>19.62359669065638</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.04763199329247</v>
+        <v>60.61139743325153</v>
       </c>
       <c r="R9" t="n">
-        <v>154.4998004594754</v>
+        <v>157.6923741114841</v>
       </c>
       <c r="S9" t="n">
-        <v>208.0546723240556</v>
+        <v>209.0097831898551</v>
       </c>
       <c r="T9" t="n">
-        <v>230.1022771365572</v>
+        <v>230.3095373220755</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64966843574</v>
+        <v>249.6530513549813</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2358338408287</v>
+        <v>169.2789429537837</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5905377629157</v>
+        <v>167.973816967188</v>
       </c>
       <c r="I10" t="n">
-        <v>167.7792107247835</v>
+        <v>169.0756193216474</v>
       </c>
       <c r="J10" t="n">
-        <v>132.3829822534632</v>
+        <v>135.4307965393794</v>
       </c>
       <c r="K10" t="n">
-        <v>87.63306818599312</v>
+        <v>92.64156330930653</v>
       </c>
       <c r="L10" t="n">
-        <v>61.23248482052084</v>
+        <v>67.64163421384382</v>
       </c>
       <c r="M10" t="n">
-        <v>57.87495130108564</v>
+        <v>64.63250070729012</v>
       </c>
       <c r="N10" t="n">
-        <v>45.52742525381613</v>
+        <v>52.12429523900666</v>
       </c>
       <c r="O10" t="n">
-        <v>70.93146752113316</v>
+        <v>77.0247446868043</v>
       </c>
       <c r="P10" t="n">
-        <v>90.02482896987836</v>
+        <v>95.23868023126816</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.7602664289466</v>
+        <v>155.3700667873848</v>
       </c>
       <c r="R10" t="n">
-        <v>221.1187607391431</v>
+        <v>223.0571032180092</v>
       </c>
       <c r="S10" t="n">
-        <v>243.7173165388213</v>
+        <v>244.4685908073183</v>
       </c>
       <c r="T10" t="n">
-        <v>218.0928442104561</v>
+        <v>218.2770376930819</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2196592109498</v>
+        <v>291.222010617111</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23266,22 +23266,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>334.2049612295417</v>
       </c>
       <c r="F11" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>408.5377606314286</v>
+        <v>392.4834572065145</v>
       </c>
       <c r="H11" t="n">
-        <v>329.9979705112285</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31017767184315</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R11" t="n">
         <v>180.8732471227138</v>
@@ -23314,7 +23314,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>219.5133071096113</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>348.6901097889768</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>173.0439072660354</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
         <v>203.8424276152394</v>
@@ -23348,19 +23348,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>173.9843481253239</v>
+        <v>144.7454815191186</v>
       </c>
       <c r="G12" t="n">
         <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>122.1978327507411</v>
+        <v>106.1435293258269</v>
       </c>
       <c r="I12" t="n">
-        <v>93.5403079778637</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>43.32485933570487</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>139.169341083075</v>
+        <v>109.9304744768696</v>
       </c>
       <c r="S12" t="n">
         <v>203.4683135038341</v>
@@ -23396,7 +23396,7 @@
         <v>249.633423953496</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>246.0753360514353</v>
       </c>
       <c r="W12" t="n">
         <v>283.2492567629311</v>
@@ -23442,22 +23442,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N13" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q13" t="n">
         <v>134.42632090912</v>
@@ -23512,13 +23512,13 @@
         <v>392.4834572065145</v>
       </c>
       <c r="H14" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>209.8644289040167</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>33.04016118063686</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>219.5133071096113</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23560,10 +23560,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>319.5780126973076</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>352.1753826884365</v>
       </c>
     </row>
     <row r="15">
@@ -23582,19 +23582,19 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E15" t="n">
-        <v>187.4605452976028</v>
+        <v>158.2216786913975</v>
       </c>
       <c r="F15" t="n">
-        <v>148.2307544185783</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>131.5309158723091</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H15" t="n">
-        <v>106.1435293258269</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I15" t="n">
-        <v>79.27029148665741</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
         <v>58.29370945070389</v>
@@ -23630,13 +23630,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>220.3945573472907</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>223.5463314734268</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>254.0103901567258</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23734,10 +23734,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>281.872275577485</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>267.4069117465241</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>376.3647837635895</v>
+        <v>376.1630813084857</v>
       </c>
       <c r="H17" t="n">
-        <v>305.0158993509535</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>190.260482561632</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>16.92148773771183</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
@@ -23788,7 +23788,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>197.0273298190931</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23813,28 +23813,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C18" t="n">
-        <v>163.8915063399654</v>
+        <v>152.1175837185159</v>
       </c>
       <c r="D18" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>187.4605452976028</v>
+        <v>141.9013027933688</v>
       </c>
       <c r="F18" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>115.4122424293841</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>90.02485588290187</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
         <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>12.93616940157355</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4683135038341</v>
+        <v>151.7434696071106</v>
       </c>
       <c r="T18" t="n">
         <v>229.1070318577418</v>
@@ -23879,7 +23879,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.8962664135933</v>
+        <v>191.1714225168698</v>
       </c>
     </row>
     <row r="19">
@@ -23916,22 +23916,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K19" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M19" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N19" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q19" t="n">
         <v>134.42632090912</v>
@@ -23977,13 +23977,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>308.2337110395638</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>347.4215736766455</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>376.1630813084857</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
@@ -24016,22 +24016,22 @@
         <v>68.20822947306053</v>
       </c>
       <c r="R20" t="n">
-        <v>180.8732471227138</v>
+        <v>129.1484032259903</v>
       </c>
       <c r="S20" t="n">
         <v>224.8250298051639</v>
       </c>
       <c r="T20" t="n">
-        <v>177.3867546403594</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>203.3946336666862</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
-        <v>267.9469019518928</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>280.034185430163</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24050,7 +24050,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>203.8424276152394</v>
+        <v>180.8121896890139</v>
       </c>
       <c r="D21" t="n">
         <v>172.0989423795122</v>
@@ -24092,25 +24092,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>93.81180103394462</v>
+        <v>87.44449718635144</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>151.7434696071106</v>
       </c>
       <c r="T21" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>204.2758839043657</v>
+        <v>197.9085800567725</v>
       </c>
       <c r="V21" t="n">
-        <v>203.942385131042</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>243.2983354876571</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.8744102919364</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>257.8910371568527</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>243.4256733258919</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G23" t="n">
         <v>421.7223238127198</v>
@@ -24226,10 +24226,10 @@
         <v>344.9668206262274</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9119402934068</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R23" t="n">
         <v>180.8732471227138</v>
@@ -24262,7 +24262,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>182.0702564106897</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24271,10 +24271,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>273.1107969861573</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>302.2228940778266</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24290,7 +24290,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>96.39286006215664</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24302,13 +24302,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H24" t="n">
-        <v>126.9941880776093</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
-        <v>32.80307577550715</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S24" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864784</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>182.6180078750455</v>
       </c>
       <c r="W24" t="n">
-        <v>207.5431744455755</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24390,22 +24390,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K25" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L25" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M25" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N25" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O25" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P25" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q25" t="n">
         <v>134.42632090912</v>
@@ -24451,22 +24451,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>284.2524726189316</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G26" t="n">
         <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
-        <v>269.2607383088719</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I26" t="n">
-        <v>231.2151330924777</v>
+        <v>159.9119402934066</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>105.1671648053582</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S26" t="n">
         <v>224.8250298051639</v>
@@ -24499,7 +24499,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7521737158166</v>
+        <v>182.0702564106897</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24511,7 +24511,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>302.2228940778265</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>105.4170250743854</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
@@ -24545,7 +24545,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J27" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,16 +24566,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
-        <v>139.169341083075</v>
+        <v>63.46325876571922</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864784</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U27" t="n">
         <v>249.633423953496</v>
@@ -24584,13 +24584,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>207.5431744455755</v>
+        <v>216.5673394578042</v>
       </c>
       <c r="X27" t="n">
-        <v>154.3269813936074</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>167.1901840962377</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24627,22 +24627,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K28" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L28" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M28" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N28" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O28" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P28" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q28" t="n">
         <v>134.42632090912</v>
@@ -24703,7 +24703,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J29" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
-        <v>180.8732471227138</v>
+        <v>105.1671648053581</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T29" t="n">
-        <v>141.6315935982778</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U29" t="n">
-        <v>173.046091398461</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>246.6225246958963</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>282.1349619983861</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>302.2228940778265</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>137.1605103101126</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
-        <v>172.0989423795122</v>
+        <v>127.9460296523939</v>
       </c>
       <c r="E30" t="n">
         <v>187.4605452976028</v>
@@ -24779,10 +24779,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I30" t="n">
-        <v>32.80307577550712</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J30" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,16 +24803,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>63.46325876571936</v>
+        <v>63.46325876571922</v>
       </c>
       <c r="S30" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U30" t="n">
         <v>249.633423953496</v>
@@ -24827,7 +24827,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>167.1901840962377</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="31">
@@ -24864,22 +24864,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K31" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L31" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M31" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N31" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O31" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P31" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q31" t="n">
         <v>134.42632090912</v>
@@ -24925,10 +24925,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2524726189317</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>323.4403352560134</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
         <v>421.7223238127198</v>
@@ -24940,7 +24940,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J32" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.526312167933753</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
         <v>180.8732471227138</v>
@@ -24970,16 +24970,16 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6315935982778</v>
+        <v>141.6315935982777</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>258.7098081741665</v>
       </c>
       <c r="X32" t="n">
         <v>348.8168793035129</v>
@@ -25001,13 +25001,13 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>163.7107345250893</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
-        <v>98.27826580796832</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
         <v>160.7697824785144</v>
@@ -25019,7 +25019,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S33" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>162.4251145526148</v>
       </c>
       <c r="U33" t="n">
-        <v>173.9273416361404</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V33" t="n">
-        <v>173.5938428628168</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25101,22 +25101,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K34" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L34" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M34" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N34" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O34" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P34" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q34" t="n">
         <v>134.42632090912</v>
@@ -25156,19 +25156,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>280.0997653503728</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
-        <v>258.394523440891</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>299.2213227339307</v>
+        <v>292.1150375966388</v>
       </c>
       <c r="F35" t="n">
-        <v>338.4091853710124</v>
+        <v>331.3029002337205</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7223238127198</v>
+        <v>353.8788064730712</v>
       </c>
       <c r="H35" t="n">
         <v>344.9668206262274</v>
@@ -25177,7 +25177,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R35" t="n">
         <v>180.8732471227138</v>
@@ -25210,7 +25210,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7521737158166</v>
+        <v>188.9956036430542</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>127.2755251786779</v>
+        <v>128.256187308272</v>
       </c>
       <c r="C36" t="n">
-        <v>143.1051954128828</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
-        <v>187.4605452976028</v>
+        <v>119.6170279579543</v>
       </c>
       <c r="F36" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>92.92626513886586</v>
       </c>
       <c r="H36" t="n">
         <v>135.3823959320322</v>
@@ -25256,7 +25256,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>27.32535990487681</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R36" t="n">
-        <v>78.43210888071837</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S36" t="n">
         <v>203.4683135038341</v>
@@ -25289,7 +25289,7 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25338,22 +25338,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N37" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q37" t="n">
         <v>134.42632090912</v>
@@ -25405,7 +25405,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>353.8788064730712</v>
       </c>
       <c r="H38" t="n">
         <v>344.9668206262274</v>
@@ -25414,7 +25414,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J38" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.74101376191024</v>
+        <v>0.3647121334119277</v>
       </c>
       <c r="R38" t="n">
-        <v>134.4060314115635</v>
+        <v>113.0297297830652</v>
       </c>
       <c r="S38" t="n">
-        <v>178.3578140940136</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
         <v>217.3376759156334</v>
@@ -25450,10 +25450,10 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>253.5478719282607</v>
       </c>
       <c r="W38" t="n">
-        <v>284.4634018809122</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>169.6134383606619</v>
+        <v>128.256187308272</v>
       </c>
       <c r="C39" t="n">
-        <v>157.3752119040891</v>
+        <v>135.9989102755908</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>104.2554250398636</v>
       </c>
       <c r="E39" t="n">
-        <v>140.9933295864525</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>127.5171324141736</v>
+        <v>106.1408307856753</v>
       </c>
       <c r="G39" t="n">
         <v>160.7697824785144</v>
@@ -25493,7 +25493,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J39" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R39" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S39" t="n">
         <v>203.4683135038341</v>
@@ -25575,22 +25575,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K40" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M40" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N40" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O40" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P40" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q40" t="n">
         <v>134.42632090912</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>334.2077853288379</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>303.2485772059832</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
@@ -25651,7 +25651,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684216</v>
+        <v>22.32810651156813</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R41" t="n">
         <v>180.8732471227138</v>
@@ -25684,19 +25684,19 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>203.3946336666862</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W41" t="n">
-        <v>298.6607294494406</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>347.5804341269569</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6642151128092</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>177.1114315853866</v>
+        <v>158.484887566109</v>
       </c>
       <c r="D42" t="n">
-        <v>172.0989423795122</v>
+        <v>126.7414023303818</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>134.0334268500499</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7697824785144</v>
+        <v>115.4122424293841</v>
       </c>
       <c r="H42" t="n">
         <v>135.3823959320322</v>
@@ -25730,7 +25730,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R42" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S42" t="n">
         <v>203.4683135038341</v>
@@ -25769,13 +25769,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>252.9007144947059</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>212.5477241453681</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N43" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q43" t="n">
         <v>134.42632090912</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>337.8253315672104</v>
+        <v>324.6054063217891</v>
       </c>
       <c r="C44" t="n">
-        <v>303.2485772059832</v>
+        <v>288.2395794250781</v>
       </c>
       <c r="D44" t="n">
-        <v>288.7832133750223</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E44" t="n">
-        <v>329.610012668062</v>
+        <v>314.601014887157</v>
       </c>
       <c r="F44" t="n">
         <v>399.146417573369</v>
@@ -25888,7 +25888,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R44" t="n">
         <v>180.8732471227138</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.6642151128092</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>172.0989423795122</v>
+        <v>126.7414023303818</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
@@ -25961,13 +25961,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H45" t="n">
-        <v>105.033853663807</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I45" t="n">
-        <v>108.5091580928627</v>
+        <v>91.08724139559729</v>
       </c>
       <c r="J45" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S45" t="n">
         <v>203.4683135038341</v>
@@ -26000,19 +26000,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V45" t="n">
-        <v>245.0979337283282</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>252.9007144947059</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>242.8962664135933</v>
+        <v>197.538726364463</v>
       </c>
     </row>
     <row r="46">
@@ -26049,22 +26049,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N46" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q46" t="n">
         <v>134.42632090912</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>384576.6862798836</v>
+        <v>373285.04437323</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430464.2573279769</v>
+        <v>440136.0785660914</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>440136.0785660915</v>
+        <v>440136.0785660914</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451180.4687497059</v>
+        <v>455590.5414178183</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>451180.4687497059</v>
+        <v>455590.5414178182</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>472258.5812398801</v>
+        <v>472258.5812398799</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>472258.5812398799</v>
+        <v>472258.5812398801</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>461832.6319937391</v>
+        <v>466754.5321583793</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>451949.0437108952</v>
+        <v>466754.5321583793</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440896.4197338684</v>
+        <v>451180.4687497059</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>440896.4197338684</v>
+        <v>451180.4687497061</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>121999.4754572634</v>
       </c>
       <c r="D2" t="n">
-        <v>128732.379383589</v>
+        <v>124515.8541741198</v>
       </c>
       <c r="E2" t="n">
-        <v>146256.3526234022</v>
+        <v>149296.6641153514</v>
       </c>
       <c r="F2" t="n">
         <v>149296.6641153515</v>
       </c>
       <c r="G2" t="n">
-        <v>152730.8429149134</v>
+        <v>154087.4346940819</v>
       </c>
       <c r="H2" t="n">
-        <v>152730.8429149133</v>
+        <v>154087.434694082</v>
       </c>
       <c r="I2" t="n">
         <v>159196.779508529</v>
@@ -26340,22 +26340,22 @@
         <v>159196.779508529</v>
       </c>
       <c r="K2" t="n">
-        <v>159196.779508529</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="L2" t="n">
         <v>159196.7795085291</v>
       </c>
       <c r="M2" t="n">
-        <v>156007.5773759358</v>
+        <v>157521.6134936438</v>
       </c>
       <c r="N2" t="n">
-        <v>152967.2658839866</v>
+        <v>157521.6134936438</v>
       </c>
       <c r="O2" t="n">
-        <v>149533.0870844247</v>
+        <v>152730.8429149134</v>
       </c>
       <c r="P2" t="n">
-        <v>149533.0870844247</v>
+        <v>152730.8429149133</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32691.71550448053</v>
+        <v>12218.31441725224</v>
       </c>
       <c r="E3" t="n">
-        <v>96695.48742543261</v>
+        <v>120162.3225111341</v>
       </c>
       <c r="F3" t="n">
-        <v>4088.730745159375</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4417.886610604107</v>
+        <v>6163.069085671684</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8070.314708508721</v>
+        <v>6377.114902052934</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5327.059871028257</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>14119.43098152452</v>
       </c>
       <c r="D4" t="n">
-        <v>12683.14583840435</v>
+        <v>13572.5767591065</v>
       </c>
       <c r="E4" t="n">
-        <v>7956.751824328531</v>
+        <v>8855.791115024345</v>
       </c>
       <c r="F4" t="n">
         <v>8855.791115024349</v>
       </c>
       <c r="G4" t="n">
-        <v>9990.90001059225</v>
+        <v>10486.54354806419</v>
       </c>
       <c r="H4" t="n">
-        <v>9990.90001059225</v>
+        <v>10486.5435480642</v>
       </c>
       <c r="I4" t="n">
-        <v>12411.63085686816</v>
+        <v>12411.63085686817</v>
       </c>
       <c r="J4" t="n">
-        <v>12411.63085686816</v>
+        <v>12411.63085686817</v>
       </c>
       <c r="K4" t="n">
-        <v>12411.63085686816</v>
+        <v>12411.63085686817</v>
       </c>
       <c r="L4" t="n">
-        <v>12411.63085686816</v>
+        <v>12411.63085686817</v>
       </c>
       <c r="M4" t="n">
-        <v>11188.08569648283</v>
+        <v>11741.2530005786</v>
       </c>
       <c r="N4" t="n">
-        <v>10077.27936105752</v>
+        <v>11741.2530005786</v>
       </c>
       <c r="O4" t="n">
-        <v>8933.936672077427</v>
+        <v>9990.900010592246</v>
       </c>
       <c r="P4" t="n">
-        <v>8933.936672077427</v>
+        <v>9990.900010592246</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>41254.22594844156</v>
+        <v>40733.0759629187</v>
       </c>
       <c r="E5" t="n">
-        <v>11039.24867339523</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="F5" t="n">
         <v>11906.86567606057</v>
       </c>
       <c r="G5" t="n">
-        <v>12886.88102139041</v>
+        <v>13274.01309532408</v>
       </c>
       <c r="H5" t="n">
-        <v>12886.88102139041</v>
+        <v>13274.01309532408</v>
       </c>
       <c r="I5" t="n">
-        <v>14732.0723912985</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="J5" t="n">
-        <v>14732.07239129851</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="K5" t="n">
-        <v>14732.07239129851</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="L5" t="n">
-        <v>14732.07239129851</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="M5" t="n">
-        <v>13821.96630430657</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="N5" t="n">
-        <v>12954.34930164122</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="O5" t="n">
-        <v>11974.33395631138</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="P5" t="n">
-        <v>11974.33395631138</v>
+        <v>12886.88102139042</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-232873.6223874089</v>
+        <v>-249916.0100753243</v>
       </c>
       <c r="C6" t="n">
-        <v>67457.98544422959</v>
+        <v>50415.59775631421</v>
       </c>
       <c r="D6" t="n">
-        <v>42103.29209226253</v>
+        <v>41089.29816453008</v>
       </c>
       <c r="E6" t="n">
-        <v>30564.86470024583</v>
+        <v>-7154.192393778099</v>
       </c>
       <c r="F6" t="n">
-        <v>124445.2765791072</v>
+        <v>113008.130117356</v>
       </c>
       <c r="G6" t="n">
-        <v>125435.1752723266</v>
+        <v>108904.085679152</v>
       </c>
       <c r="H6" t="n">
-        <v>129853.0618829307</v>
+        <v>115067.1547648238</v>
       </c>
       <c r="I6" t="n">
-        <v>123982.7615518536</v>
+        <v>110700.090562131</v>
       </c>
       <c r="J6" t="n">
-        <v>132053.0762603623</v>
+        <v>117077.2054641839</v>
       </c>
       <c r="K6" t="n">
-        <v>132053.0762603623</v>
+        <v>117077.205464184</v>
       </c>
       <c r="L6" t="n">
-        <v>132053.0762603624</v>
+        <v>117077.205464184</v>
       </c>
       <c r="M6" t="n">
-        <v>130997.5253751464</v>
+        <v>111130.3366065999</v>
       </c>
       <c r="N6" t="n">
-        <v>129935.6372212879</v>
+        <v>116457.3964776282</v>
       </c>
       <c r="O6" t="n">
-        <v>128624.8164560359</v>
+        <v>114517.972387107</v>
       </c>
       <c r="P6" t="n">
-        <v>128624.8164560359</v>
+        <v>114517.9723871069</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>349.8452269927324</v>
+        <v>325.9392643540689</v>
       </c>
       <c r="E3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="F3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="G3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="H3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="I3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="J3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="K3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="L3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="M3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="N3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="O3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="P3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="G4" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="H4" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="I4" t="n">
-        <v>75.70608231735557</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="J4" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="K4" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="L4" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M4" t="n">
-        <v>60.73723220235658</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N4" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O4" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P4" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.17279435469356</v>
+        <v>14.26683171603014</v>
       </c>
       <c r="E3" t="n">
-        <v>114.7943411909047</v>
+        <v>138.7003038295682</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
-        <v>14.27001649120629</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.11867344292503</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.34854226822523</v>
+        <v>23.9812384206322</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>21.37630162849817</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N4" t="n">
-        <v>14.27001649120629</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16.11867344292503</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.406412972835104</v>
+        <v>1.310308600418367</v>
       </c>
       <c r="H8" t="n">
-        <v>14.40342685804751</v>
+        <v>13.4191979540346</v>
       </c>
       <c r="I8" t="n">
-        <v>54.22073613522539</v>
+        <v>50.51567231762913</v>
       </c>
       <c r="J8" t="n">
-        <v>119.3675430531635</v>
+        <v>111.2108045747584</v>
       </c>
       <c r="K8" t="n">
-        <v>178.9010041932735</v>
+        <v>166.6761676304679</v>
       </c>
       <c r="L8" t="n">
-        <v>221.9425152106759</v>
+        <v>206.7765244605216</v>
       </c>
       <c r="M8" t="n">
-        <v>246.9538119163321</v>
+        <v>230.0787250332117</v>
       </c>
       <c r="N8" t="n">
-        <v>250.9497827753999</v>
+        <v>233.8016393441504</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9647637767708</v>
+        <v>220.7722581987402</v>
       </c>
       <c r="P8" t="n">
-        <v>202.2439435099041</v>
+        <v>188.4240146259118</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8767789202469</v>
+        <v>141.498587873429</v>
       </c>
       <c r="R8" t="n">
-        <v>88.34558890485317</v>
+        <v>82.3086726210303</v>
       </c>
       <c r="S8" t="n">
-        <v>32.04863561847996</v>
+        <v>29.85865723203356</v>
       </c>
       <c r="T8" t="n">
-        <v>6.15657278858567</v>
+        <v>5.735875898331403</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1125130378268083</v>
+        <v>0.1048246880334693</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7524972807013489</v>
+        <v>0.7010769082332804</v>
       </c>
       <c r="H9" t="n">
-        <v>7.267539526773555</v>
+        <v>6.770926982147735</v>
       </c>
       <c r="I9" t="n">
-        <v>25.90834935748066</v>
+        <v>24.13795495452303</v>
       </c>
       <c r="J9" t="n">
-        <v>71.09449089292876</v>
+        <v>66.23639333444341</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5118086999191</v>
+        <v>113.2085461860732</v>
       </c>
       <c r="L9" t="n">
-        <v>163.3876222856153</v>
+        <v>152.2228611495112</v>
       </c>
       <c r="M9" t="n">
-        <v>190.6656487110391</v>
+        <v>177.6368990729675</v>
       </c>
       <c r="N9" t="n">
-        <v>192.087253921875</v>
+        <v>182.338419216339</v>
       </c>
       <c r="O9" t="n">
-        <v>179.0382455535354</v>
+        <v>166.8040308812753</v>
       </c>
       <c r="P9" t="n">
-        <v>143.6939763472602</v>
+        <v>133.8749404853534</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.05561779619325</v>
+        <v>89.49185235623419</v>
       </c>
       <c r="R9" t="n">
-        <v>46.72083993687851</v>
+        <v>43.52826628486983</v>
       </c>
       <c r="S9" t="n">
-        <v>13.97730694636057</v>
+        <v>13.02219608056114</v>
       </c>
       <c r="T9" t="n">
-        <v>3.033092109493594</v>
+        <v>2.82583192397537</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0495064000461414</v>
+        <v>0.04612348080482109</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6308684421180419</v>
+        <v>0.5877593291630751</v>
       </c>
       <c r="H10" t="n">
-        <v>5.608993967194959</v>
+        <v>5.225714762922617</v>
       </c>
       <c r="I10" t="n">
-        <v>18.97193460478621</v>
+        <v>17.6755260079223</v>
       </c>
       <c r="J10" t="n">
-        <v>44.60239885774556</v>
+        <v>41.5545845718294</v>
       </c>
       <c r="K10" t="n">
-        <v>73.29544263880521</v>
+        <v>68.2869475154918</v>
       </c>
       <c r="L10" t="n">
-        <v>93.792931839986</v>
+        <v>87.38378244666302</v>
       </c>
       <c r="M10" t="n">
-        <v>98.89149588583086</v>
+        <v>92.13394647962639</v>
       </c>
       <c r="N10" t="n">
-        <v>96.54007714702733</v>
+        <v>89.94320716183681</v>
       </c>
       <c r="O10" t="n">
-        <v>89.17038670955745</v>
+        <v>83.07710954388631</v>
       </c>
       <c r="P10" t="n">
-        <v>76.30067049034933</v>
+        <v>71.08681922895953</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.82662927590258</v>
+        <v>49.21682891746441</v>
       </c>
       <c r="R10" t="n">
-        <v>28.36613922468941</v>
+        <v>26.42779674582335</v>
       </c>
       <c r="S10" t="n">
-        <v>10.99431639582078</v>
+        <v>10.24304212732377</v>
       </c>
       <c r="T10" t="n">
-        <v>2.695528798140724</v>
+        <v>2.511335315514957</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03441100593371142</v>
+        <v>0.03205959977253141</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I11" t="n">
         <v>72.01212845185798</v>
@@ -31767,22 +31767,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M11" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O11" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R11" t="n">
         <v>117.334332763479</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H12" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I12" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K12" t="n">
         <v>161.3833488850657</v>
@@ -31849,13 +31849,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>222.8398747259508</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N12" t="n">
-        <v>207.056104036874</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O12" t="n">
-        <v>223.515857614999</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P12" t="n">
         <v>190.8441275431999</v>
@@ -31864,16 +31864,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S12" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,16 +31913,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H13" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I13" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L13" t="n">
         <v>124.569106525823</v>
@@ -31940,10 +31940,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S13" t="n">
         <v>14.60186970832839</v>
@@ -31952,7 +31952,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H17" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I17" t="n">
         <v>72.01212845185798</v>
@@ -32241,22 +32241,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L17" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M17" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O17" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R17" t="n">
         <v>117.334332763479</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H18" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J18" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K18" t="n">
         <v>161.3833488850657</v>
@@ -32326,7 +32326,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>237.4447939710053</v>
+        <v>243.8120978185985</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32338,16 +32338,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S18" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H19" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I19" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K19" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L19" t="n">
         <v>124.569106525823</v>
@@ -32414,10 +32414,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R19" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S19" t="n">
         <v>14.60186970832839</v>
@@ -32426,7 +32426,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>237.4447939710053</v>
+        <v>243.8120978185985</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -32703,7 +32703,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H23" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I23" t="n">
         <v>72.01212845185798</v>
@@ -32715,22 +32715,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L23" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M23" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N23" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O23" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P23" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R23" t="n">
         <v>117.334332763479</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H24" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I24" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J24" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K24" t="n">
         <v>161.3833488850657</v>
@@ -32812,16 +32812,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R24" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S24" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T24" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H25" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I25" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J25" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K25" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L25" t="n">
         <v>124.569106525823</v>
@@ -32888,10 +32888,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R25" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S25" t="n">
         <v>14.60186970832839</v>
@@ -32900,7 +32900,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H26" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I26" t="n">
         <v>72.01212845185798</v>
@@ -32952,22 +32952,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L26" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M26" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N26" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O26" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P26" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R26" t="n">
         <v>117.334332763479</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H27" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I27" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J27" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K27" t="n">
         <v>161.3833488850657</v>
@@ -33049,16 +33049,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R27" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S27" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T27" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H28" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I28" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J28" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K28" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L28" t="n">
         <v>124.569106525823</v>
@@ -33125,10 +33125,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R28" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S28" t="n">
         <v>14.60186970832839</v>
@@ -33137,7 +33137,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H29" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I29" t="n">
         <v>72.01212845185798</v>
@@ -33189,22 +33189,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L29" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M29" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N29" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O29" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P29" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R29" t="n">
         <v>117.334332763479</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H30" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I30" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J30" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K30" t="n">
         <v>161.3833488850657</v>
@@ -33286,16 +33286,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R30" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S30" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T30" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H31" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I31" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J31" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K31" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L31" t="n">
         <v>124.569106525823</v>
@@ -33362,10 +33362,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R31" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S31" t="n">
         <v>14.60186970832839</v>
@@ -33374,7 +33374,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H32" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I32" t="n">
         <v>72.01212845185798</v>
@@ -33426,22 +33426,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L32" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M32" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N32" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O32" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P32" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R32" t="n">
         <v>117.334332763479</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H33" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I33" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J33" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K33" t="n">
         <v>161.3833488850657</v>
@@ -33523,16 +33523,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R33" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S33" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T33" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,16 +33572,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H34" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I34" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J34" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K34" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L34" t="n">
         <v>124.569106525823</v>
@@ -33599,10 +33599,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R34" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S34" t="n">
         <v>14.60186970832839</v>
@@ -33611,7 +33611,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I35" t="n">
         <v>72.01212845185798</v>
@@ -33663,22 +33663,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M35" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O35" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R35" t="n">
         <v>117.334332763479</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H36" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I36" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K36" t="n">
         <v>161.3833488850657</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>252.8244861242316</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33760,16 +33760,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S36" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H37" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I37" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L37" t="n">
         <v>124.569106525823</v>
@@ -33836,10 +33836,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S37" t="n">
         <v>14.60186970832839</v>
@@ -33848,7 +33848,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H38" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I38" t="n">
         <v>72.01212845185798</v>
@@ -33900,22 +33900,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L38" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M38" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N38" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O38" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P38" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R38" t="n">
         <v>117.334332763479</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H39" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I39" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J39" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K39" t="n">
         <v>161.3833488850657</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>238.5544696330253</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -33997,16 +33997,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R39" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S39" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T39" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H40" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I40" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J40" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K40" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L40" t="n">
         <v>124.569106525823</v>
@@ -34073,10 +34073,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R40" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S40" t="n">
         <v>14.60186970832839</v>
@@ -34085,7 +34085,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I41" t="n">
         <v>72.01212845185798</v>
@@ -34137,22 +34137,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M41" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O41" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R41" t="n">
         <v>117.334332763479</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H42" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I42" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K42" t="n">
         <v>161.3833488850657</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>238.2195668791771</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N42" t="n">
-        <v>222.4357961901002</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34234,16 +34234,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S42" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H43" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I43" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L43" t="n">
         <v>124.569106525823</v>
@@ -34310,10 +34310,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S43" t="n">
         <v>14.60186970832839</v>
@@ -34322,7 +34322,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I44" t="n">
         <v>72.01212845185798</v>
@@ -34374,22 +34374,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M44" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O44" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R44" t="n">
         <v>117.334332763479</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H45" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I45" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K45" t="n">
         <v>161.3833488850657</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>238.2195668791771</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N45" t="n">
-        <v>222.4357961901002</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -34471,16 +34471,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S45" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I46" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L46" t="n">
         <v>124.569106525823</v>
@@ -34547,10 +34547,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S46" t="n">
         <v>14.60186970832839</v>
@@ -34559,7 +34559,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="M11" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N11" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O11" t="n">
-        <v>14.36404809015056</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.36404809015056</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="M12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35658,10 +35658,10 @@
         <v>29.23886660620531</v>
       </c>
       <c r="N14" t="n">
+        <v>29.23886660620531</v>
+      </c>
+      <c r="O14" t="n">
         <v>28.05749825847984</v>
-      </c>
-      <c r="O14" t="n">
-        <v>29.23886660620531</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>45.35754004913034</v>
+        <v>35.53951039954495</v>
       </c>
       <c r="M17" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="N17" t="n">
-        <v>29.42947135387477</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="O17" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="P17" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L18" t="n">
-        <v>43.5249121683574</v>
+        <v>27.4510490532846</v>
       </c>
       <c r="M18" t="n">
-        <v>45.35754004913034</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N18" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="O18" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>43.5249121683574</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="M20" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="N20" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="O20" t="n">
-        <v>45.35754004913034</v>
+        <v>35.53951039954501</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>28.55120600833615</v>
       </c>
       <c r="L21" t="n">
-        <v>14.97370616002124</v>
+        <v>27.45104905328466</v>
       </c>
       <c r="M21" t="n">
         <v>45.35754004913034</v>
       </c>
       <c r="N21" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="O21" t="n">
-        <v>45.35754004913034</v>
+        <v>51.72484389672351</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>58.55180989409087</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>75.70608231735557</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N23" t="n">
-        <v>75.70608231735557</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O23" t="n">
-        <v>75.70608231735557</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P23" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L24" t="n">
-        <v>75.70608231735557</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M24" t="n">
-        <v>75.70608231735557</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N24" t="n">
-        <v>72.64725070857355</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>75.70608231735557</v>
+        <v>67.94310385601936</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>58.55180989409087</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>75.70608231735565</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N26" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O26" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P26" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.55120600833615</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>75.70608231735559</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M27" t="n">
-        <v>75.70608231735559</v>
+        <v>58.28320261842308</v>
       </c>
       <c r="N27" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O27" t="n">
-        <v>51.95860967794442</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>58.55180989409087</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M29" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N29" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O29" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P29" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L30" t="n">
-        <v>14.36404809015056</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M30" t="n">
-        <v>75.70608231735559</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N30" t="n">
-        <v>67.84351733964857</v>
+        <v>74.44458696846283</v>
       </c>
       <c r="O30" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P30" t="n">
-        <v>66.14576759613</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>58.55180989409087</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N32" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O32" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P32" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
-        <v>75.70608231735559</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M33" t="n">
-        <v>45.35754004913034</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N33" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
-        <v>75.70608231735559</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P33" t="n">
-        <v>35.15227563715026</v>
+        <v>37.59456158779405</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>58.55180989409087</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M35" t="n">
-        <v>60.73723220235658</v>
+        <v>60.29863175498012</v>
       </c>
       <c r="N35" t="n">
-        <v>60.46862492668869</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O35" t="n">
-        <v>60.73723220235658</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L36" t="n">
-        <v>58.28320261842298</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M36" t="n">
-        <v>60.73723220235658</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N36" t="n">
-        <v>60.73723220235658</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O36" t="n">
-        <v>60.73723220235658</v>
+        <v>36.55115911556899</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>30.49431163561107</v>
+        <v>51.00692430942247</v>
       </c>
       <c r="M38" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N38" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O38" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P38" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L39" t="n">
-        <v>16.46056150590838</v>
+        <v>59.03713640608721</v>
       </c>
       <c r="M39" t="n">
-        <v>45.35754004913034</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
-        <v>46.46721571115029</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O39" t="n">
-        <v>29.23886660620528</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P39" t="n">
-        <v>46.46721571115029</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>15.02689772573354</v>
+        <v>29.42947135387474</v>
       </c>
       <c r="M41" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N41" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O41" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P41" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>30.23201420223615</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M42" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N42" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O42" t="n">
-        <v>29.23886660620528</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>15.02689772573354</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M44" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N44" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O44" t="n">
-        <v>30.34854226822526</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="P44" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>30.23201420223615</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M45" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N45" t="n">
-        <v>30.34854226822526</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O45" t="n">
-        <v>29.23886660620528</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
